--- a/gempa/v02-new/sample_gempa_anotasi_v02_new.xlsx
+++ b/gempa/v02-new/sample_gempa_anotasi_v02_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\data_untuk_anotasi\gempa\v02-new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\gempa\v02-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F972B2-BC9A-42E2-8CAE-C3D33C97B446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E35D4A-552C-4D33-9860-49FF45BE9342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13663" uniqueCount="3004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13663" uniqueCount="3003">
   <si>
     <t>id</t>
   </si>
@@ -8529,9 +8529,6 @@
   </si>
   <si>
     <t>Pemenang Timur</t>
-  </si>
-  <si>
-    <t>Tanjung NULL</t>
   </si>
   <si>
     <t>Jawa Timur</t>
@@ -10242,8 +10239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1543" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A906" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I913" sqref="I913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13416,7 +13413,7 @@
         <v>2508</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>2482</v>
@@ -13426,7 +13423,7 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -39342,7 +39339,7 @@
         <v>2509</v>
       </c>
       <c r="I912" s="4" t="s">
-        <v>2836</v>
+        <v>2482</v>
       </c>
       <c r="J912" s="4" t="s">
         <v>2482</v>
@@ -39453,19 +39450,19 @@
         <v>2481</v>
       </c>
       <c r="F916" s="8" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="G916" s="4" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H916" s="4" t="s">
         <v>2837</v>
       </c>
-      <c r="H916" s="4" t="s">
+      <c r="I916" s="4" t="s">
         <v>2838</v>
       </c>
-      <c r="I916" s="4" t="s">
+      <c r="J916" s="4" t="s">
         <v>2839</v>
-      </c>
-      <c r="J916" s="4" t="s">
-        <v>2840</v>
       </c>
       <c r="K916" s="4"/>
       <c r="L916" s="4">
@@ -39669,13 +39666,13 @@
         <v>2568</v>
       </c>
       <c r="G923" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H923" s="4" t="s">
+        <v>2841</v>
+      </c>
+      <c r="I923" s="4" t="s">
         <v>2842</v>
-      </c>
-      <c r="I923" s="4" t="s">
-        <v>2843</v>
       </c>
       <c r="J923" s="4" t="s">
         <v>2482</v>
@@ -39708,16 +39705,16 @@
         <v>2568</v>
       </c>
       <c r="G924" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H924" s="4" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="I924" s="4" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="J924" s="4" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="K924" s="4"/>
       <c r="L924" s="4"/>
@@ -39747,16 +39744,16 @@
         <v>2568</v>
       </c>
       <c r="G925" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H925" s="4" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="I925" s="4" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="J925" s="4" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="K925" s="4"/>
       <c r="L925" s="4"/>
@@ -39786,16 +39783,16 @@
         <v>2568</v>
       </c>
       <c r="G926" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H926" s="4" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="I926" s="4" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="J926" s="4" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="K926" s="4"/>
       <c r="L926" s="4"/>
@@ -40372,16 +40369,16 @@
         <v>2481</v>
       </c>
       <c r="F947" s="8" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G947" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H947" s="4" t="s">
+        <v>2846</v>
+      </c>
+      <c r="I947" s="4" t="s">
         <v>2847</v>
-      </c>
-      <c r="I947" s="4" t="s">
-        <v>2848</v>
       </c>
       <c r="J947" s="4" t="s">
         <v>2482</v>
@@ -40391,7 +40388,7 @@
       <c r="M947" s="4"/>
       <c r="N947" s="4"/>
       <c r="O947" s="4" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="948" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -40411,16 +40408,16 @@
         <v>2481</v>
       </c>
       <c r="F948" s="8" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G948" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H948" s="4" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="I948" s="4" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="J948" s="4" t="s">
         <v>2482</v>
@@ -40430,7 +40427,7 @@
       <c r="M948" s="4"/>
       <c r="N948" s="4"/>
       <c r="O948" s="4" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="949" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -40450,16 +40447,16 @@
         <v>2481</v>
       </c>
       <c r="F949" s="8" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G949" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H949" s="4" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="I949" s="4" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="J949" s="4" t="s">
         <v>2482</v>
@@ -40471,7 +40468,7 @@
         <v>1</v>
       </c>
       <c r="O949" s="4" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="950" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -40491,16 +40488,16 @@
         <v>2481</v>
       </c>
       <c r="F950" s="8" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G950" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H950" s="4" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="I950" s="4" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="J950" s="4" t="s">
         <v>2482</v>
@@ -40512,7 +40509,7 @@
         <v>1</v>
       </c>
       <c r="O950" s="4" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="951" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -40532,13 +40529,13 @@
         <v>2481</v>
       </c>
       <c r="F951" s="8" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G951" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H951" s="4" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="I951" s="4" t="s">
         <v>2482</v>
@@ -40551,7 +40548,7 @@
       <c r="M951" s="4"/>
       <c r="N951" s="4"/>
       <c r="O951" s="4" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="952" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -40598,19 +40595,19 @@
         <v>2481</v>
       </c>
       <c r="F953" s="8" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="G953" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H953" s="4" t="s">
+        <v>2854</v>
+      </c>
+      <c r="I953" s="4" t="s">
         <v>2855</v>
       </c>
-      <c r="I953" s="4" t="s">
+      <c r="J953" s="4" t="s">
         <v>2856</v>
-      </c>
-      <c r="J953" s="4" t="s">
-        <v>2857</v>
       </c>
       <c r="K953" s="4"/>
       <c r="L953" s="4"/>
@@ -40683,7 +40680,7 @@
       <c r="M955" s="4"/>
       <c r="N955" s="4"/>
       <c r="O955" s="4" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="956" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -40722,7 +40719,7 @@
       <c r="M956" s="4"/>
       <c r="N956" s="4"/>
       <c r="O956" s="4" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="957" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -40761,7 +40758,7 @@
       <c r="M957" s="4"/>
       <c r="N957" s="4"/>
       <c r="O957" s="4" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="958" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -40800,7 +40797,7 @@
       <c r="M958" s="4"/>
       <c r="N958" s="4"/>
       <c r="O958" s="4" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="959" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -41109,7 +41106,7 @@
       <c r="M969" s="4"/>
       <c r="N969" s="4"/>
       <c r="O969" s="4" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="970" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -41219,7 +41216,7 @@
         <v>2585</v>
       </c>
       <c r="I973" s="4" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="J973" s="4" t="s">
         <v>2482</v>
@@ -41229,7 +41226,7 @@
       <c r="M973" s="4"/>
       <c r="N973" s="4"/>
       <c r="O973" s="4" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="974" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -41268,7 +41265,7 @@
       <c r="M974" s="4"/>
       <c r="N974" s="4"/>
       <c r="O974" s="4" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="975" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -41297,17 +41294,17 @@
         <v>2819</v>
       </c>
       <c r="I975" s="4" t="s">
+        <v>2861</v>
+      </c>
+      <c r="J975" s="4" t="s">
         <v>2862</v>
-      </c>
-      <c r="J975" s="4" t="s">
-        <v>2863</v>
       </c>
       <c r="K975" s="4"/>
       <c r="L975" s="4"/>
       <c r="M975" s="4"/>
       <c r="N975" s="4"/>
       <c r="O975" s="4" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="976" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -41427,7 +41424,7 @@
       <c r="M979" s="4"/>
       <c r="N979" s="4"/>
       <c r="O979" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="980" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -41456,17 +41453,17 @@
         <v>2585</v>
       </c>
       <c r="I980" s="4" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J980" s="4" t="s">
         <v>2866</v>
-      </c>
-      <c r="J980" s="4" t="s">
-        <v>2867</v>
       </c>
       <c r="K980" s="4"/>
       <c r="L980" s="4"/>
       <c r="M980" s="4"/>
       <c r="N980" s="4"/>
       <c r="O980" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="981" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -41579,14 +41576,14 @@
         <v>2482</v>
       </c>
       <c r="J984" s="4" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="K984" s="4"/>
       <c r="L984" s="4"/>
       <c r="M984" s="4"/>
       <c r="N984" s="4"/>
       <c r="O984" s="4" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="985" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -41625,7 +41622,7 @@
       <c r="M985" s="4"/>
       <c r="N985" s="4"/>
       <c r="O985" s="4" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="986" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -41699,19 +41696,19 @@
         <v>2481</v>
       </c>
       <c r="F988" s="8" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="G988" s="4" t="s">
         <v>2541</v>
       </c>
       <c r="H988" s="4" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I988" s="4" t="s">
         <v>2870</v>
       </c>
-      <c r="I988" s="4" t="s">
+      <c r="J988" s="4" t="s">
         <v>2871</v>
-      </c>
-      <c r="J988" s="4" t="s">
-        <v>2872</v>
       </c>
       <c r="K988" s="4"/>
       <c r="L988" s="4">
@@ -41740,19 +41737,19 @@
         <v>2481</v>
       </c>
       <c r="F989" s="8" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="G989" s="4" t="s">
         <v>2541</v>
       </c>
       <c r="H989" s="4" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I989" s="4" t="s">
         <v>2870</v>
       </c>
-      <c r="I989" s="4" t="s">
-        <v>2871</v>
-      </c>
       <c r="J989" s="4" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="K989" s="4"/>
       <c r="L989" s="4">
@@ -41781,19 +41778,19 @@
         <v>2481</v>
       </c>
       <c r="F990" s="8" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="G990" s="4" t="s">
         <v>2541</v>
       </c>
       <c r="H990" s="4" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I990" s="4" t="s">
         <v>2870</v>
       </c>
-      <c r="I990" s="4" t="s">
-        <v>2871</v>
-      </c>
       <c r="J990" s="4" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="K990" s="4"/>
       <c r="L990" s="4"/>
@@ -41820,19 +41817,19 @@
         <v>2481</v>
       </c>
       <c r="F991" s="8" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="G991" s="4" t="s">
         <v>2541</v>
       </c>
       <c r="H991" s="4" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="I991" s="4" t="s">
+        <v>2876</v>
+      </c>
+      <c r="J991" s="4" t="s">
         <v>2877</v>
-      </c>
-      <c r="J991" s="4" t="s">
-        <v>2878</v>
       </c>
       <c r="K991" s="4">
         <v>1</v>
@@ -41871,14 +41868,14 @@
         <v>2482</v>
       </c>
       <c r="J992" s="4" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="K992" s="4"/>
       <c r="L992" s="4"/>
       <c r="M992" s="4"/>
       <c r="N992" s="4"/>
       <c r="O992" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="993" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -41907,17 +41904,17 @@
         <v>2542</v>
       </c>
       <c r="I993" s="4" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J993" s="4" t="s">
         <v>2880</v>
-      </c>
-      <c r="J993" s="4" t="s">
-        <v>2881</v>
       </c>
       <c r="K993" s="4"/>
       <c r="L993" s="4"/>
       <c r="M993" s="4"/>
       <c r="N993" s="4"/>
       <c r="O993" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="994" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -42064,7 +42061,7 @@
       <c r="M998" s="4"/>
       <c r="N998" s="4"/>
       <c r="O998" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="999" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -42157,7 +42154,7 @@
       <c r="M1001" s="4"/>
       <c r="N1001" s="4"/>
       <c r="O1001" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1002" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -42250,7 +42247,7 @@
       <c r="M1004" s="4"/>
       <c r="N1004" s="4"/>
       <c r="O1004" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1005" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -42289,7 +42286,7 @@
       <c r="M1005" s="4"/>
       <c r="N1005" s="4"/>
       <c r="O1005" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1006" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -42336,7 +42333,7 @@
         <v>2481</v>
       </c>
       <c r="F1007" s="8" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="G1007" s="4" t="s">
         <v>2541</v>
@@ -42355,7 +42352,7 @@
       <c r="M1007" s="4"/>
       <c r="N1007" s="4"/>
       <c r="O1007" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1008" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -42375,7 +42372,7 @@
         <v>2481</v>
       </c>
       <c r="F1008" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1008" s="4" t="s">
         <v>2502</v>
@@ -42394,7 +42391,7 @@
       <c r="M1008" s="4"/>
       <c r="N1008" s="4"/>
       <c r="O1008" s="4" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1009" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -42414,7 +42411,7 @@
         <v>2481</v>
       </c>
       <c r="F1009" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1009" s="4" t="s">
         <v>2502</v>
@@ -42433,7 +42430,7 @@
       <c r="M1009" s="4"/>
       <c r="N1009" s="4"/>
       <c r="O1009" s="4" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1010" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42615,7 +42612,7 @@
         <v>2481</v>
       </c>
       <c r="F1016" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1016" s="4" t="s">
         <v>2502</v>
@@ -42634,7 +42631,7 @@
       <c r="M1016" s="4"/>
       <c r="N1016" s="4"/>
       <c r="O1016" s="4" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1017" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42654,7 +42651,7 @@
         <v>2481</v>
       </c>
       <c r="F1017" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1017" s="4" t="s">
         <v>2502</v>
@@ -42673,7 +42670,7 @@
       <c r="M1017" s="4"/>
       <c r="N1017" s="4"/>
       <c r="O1017" s="4" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1018" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42693,7 +42690,7 @@
         <v>2481</v>
       </c>
       <c r="F1018" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1018" s="4" t="s">
         <v>2502</v>
@@ -42712,7 +42709,7 @@
       <c r="M1018" s="4"/>
       <c r="N1018" s="4"/>
       <c r="O1018" s="4" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1019" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42732,7 +42729,7 @@
         <v>2481</v>
       </c>
       <c r="F1019" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1019" s="4" t="s">
         <v>2502</v>
@@ -42751,7 +42748,7 @@
       <c r="M1019" s="4"/>
       <c r="N1019" s="4"/>
       <c r="O1019" s="4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1020" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42771,7 +42768,7 @@
         <v>2481</v>
       </c>
       <c r="F1020" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1020" s="4" t="s">
         <v>2502</v>
@@ -42790,7 +42787,7 @@
       <c r="M1020" s="4"/>
       <c r="N1020" s="4"/>
       <c r="O1020" s="4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1021" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42810,7 +42807,7 @@
         <v>2481</v>
       </c>
       <c r="F1021" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1021" s="4" t="s">
         <v>2502</v>
@@ -42829,7 +42826,7 @@
       <c r="M1021" s="4"/>
       <c r="N1021" s="4"/>
       <c r="O1021" s="4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1022" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42849,13 +42846,13 @@
         <v>2481</v>
       </c>
       <c r="F1022" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1022" s="4" t="s">
         <v>2502</v>
       </c>
       <c r="H1022" s="4" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="I1022" s="4" t="s">
         <v>2482</v>
@@ -42868,7 +42865,7 @@
       <c r="M1022" s="4"/>
       <c r="N1022" s="4"/>
       <c r="O1022" s="4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1023" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42888,7 +42885,7 @@
         <v>2481</v>
       </c>
       <c r="F1023" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1023" s="4" t="s">
         <v>2502</v>
@@ -42907,7 +42904,7 @@
       <c r="M1023" s="4"/>
       <c r="N1023" s="4"/>
       <c r="O1023" s="4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1024" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42946,7 +42943,7 @@
       <c r="M1024" s="4"/>
       <c r="N1024" s="4"/>
       <c r="O1024" s="4" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1025" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -42975,7 +42972,7 @@
         <v>2623</v>
       </c>
       <c r="I1025" s="4" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="J1025" s="4" t="s">
         <v>2482</v>
@@ -42985,7 +42982,7 @@
       <c r="M1025" s="4"/>
       <c r="N1025" s="4"/>
       <c r="O1025" s="4" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1026" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43014,7 +43011,7 @@
         <v>2623</v>
       </c>
       <c r="I1026" s="4" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="J1026" s="4" t="s">
         <v>2482</v>
@@ -43024,7 +43021,7 @@
       <c r="M1026" s="4"/>
       <c r="N1026" s="4"/>
       <c r="O1026" s="4" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1027" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43053,7 +43050,7 @@
         <v>2623</v>
       </c>
       <c r="I1027" s="4" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="J1027" s="4" t="s">
         <v>2482</v>
@@ -43063,7 +43060,7 @@
       <c r="M1027" s="4"/>
       <c r="N1027" s="4"/>
       <c r="O1027" s="4" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1028" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43110,7 +43107,7 @@
         <v>2481</v>
       </c>
       <c r="F1029" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1029" s="4" t="s">
         <v>2502</v>
@@ -43129,7 +43126,7 @@
       <c r="M1029" s="4"/>
       <c r="N1029" s="4"/>
       <c r="O1029" s="4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1030" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43149,7 +43146,7 @@
         <v>2481</v>
       </c>
       <c r="F1030" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G1030" s="4" t="s">
         <v>2502</v>
@@ -43168,7 +43165,7 @@
       <c r="M1030" s="4"/>
       <c r="N1030" s="4"/>
       <c r="O1030" s="4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1031" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43234,7 +43231,7 @@
       <c r="M1032" s="4"/>
       <c r="N1032" s="4"/>
       <c r="O1032" s="4" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1033" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43273,7 +43270,7 @@
       <c r="M1033" s="4"/>
       <c r="N1033" s="4"/>
       <c r="O1033" s="4" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1034" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43374,7 +43371,7 @@
         <v>2481</v>
       </c>
       <c r="F1037" s="8" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="G1037" s="4" t="s">
         <v>2507</v>
@@ -43395,7 +43392,7 @@
       <c r="M1037" s="4"/>
       <c r="N1037" s="4"/>
       <c r="O1037" s="4" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1038" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43488,7 +43485,7 @@
       <c r="M1040" s="4"/>
       <c r="N1040" s="4"/>
       <c r="O1040" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1041" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43517,7 +43514,7 @@
         <v>2519</v>
       </c>
       <c r="I1041" s="4" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="J1041" s="4" t="s">
         <v>2482</v>
@@ -43527,7 +43524,7 @@
       <c r="M1041" s="4"/>
       <c r="N1041" s="4"/>
       <c r="O1041" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1042" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43556,7 +43553,7 @@
         <v>2519</v>
       </c>
       <c r="I1042" s="4" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="J1042" s="4" t="s">
         <v>2482</v>
@@ -43566,7 +43563,7 @@
       <c r="M1042" s="4"/>
       <c r="N1042" s="4"/>
       <c r="O1042" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1043" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43595,7 +43592,7 @@
         <v>2519</v>
       </c>
       <c r="I1043" s="4" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="J1043" s="4" t="s">
         <v>2482</v>
@@ -43605,7 +43602,7 @@
       <c r="M1043" s="4"/>
       <c r="N1043" s="4"/>
       <c r="O1043" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1044" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43644,7 +43641,7 @@
       <c r="M1044" s="4"/>
       <c r="N1044" s="4"/>
       <c r="O1044" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1045" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43683,7 +43680,7 @@
       <c r="M1045" s="4"/>
       <c r="N1045" s="4"/>
       <c r="O1045" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1046" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43715,14 +43712,14 @@
         <v>2482</v>
       </c>
       <c r="J1046" s="4" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="K1046" s="4"/>
       <c r="L1046" s="4"/>
       <c r="M1046" s="4"/>
       <c r="N1046" s="4"/>
       <c r="O1046" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1047" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43761,7 +43758,7 @@
       <c r="M1047" s="4"/>
       <c r="N1047" s="4"/>
       <c r="O1047" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1048" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43790,7 +43787,7 @@
         <v>2520</v>
       </c>
       <c r="I1048" s="4" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="J1048" s="4" t="s">
         <v>2482</v>
@@ -43800,7 +43797,7 @@
       <c r="M1048" s="4"/>
       <c r="N1048" s="4"/>
       <c r="O1048" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1049" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43832,14 +43829,14 @@
         <v>2482</v>
       </c>
       <c r="J1049" s="4" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="K1049" s="4"/>
       <c r="L1049" s="4"/>
       <c r="M1049" s="4"/>
       <c r="N1049" s="4"/>
       <c r="O1049" s="4" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1050" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43878,7 +43875,7 @@
       <c r="M1050" s="4"/>
       <c r="N1050" s="4"/>
       <c r="O1050" s="4" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1051" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -43917,7 +43914,7 @@
       <c r="M1051" s="4"/>
       <c r="N1051" s="4"/>
       <c r="O1051" s="4" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1052" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -44231,19 +44228,19 @@
         <v>2481</v>
       </c>
       <c r="F1062" s="8" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="G1062" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H1062" s="4" t="s">
         <v>2902</v>
       </c>
-      <c r="H1062" s="4" t="s">
+      <c r="I1062" s="4" t="s">
         <v>2903</v>
       </c>
-      <c r="I1062" s="4" t="s">
+      <c r="J1062" s="4" t="s">
         <v>2904</v>
-      </c>
-      <c r="J1062" s="4" t="s">
-        <v>2905</v>
       </c>
       <c r="K1062" s="4"/>
       <c r="L1062" s="4"/>
@@ -44252,7 +44249,7 @@
         <v>2</v>
       </c>
       <c r="O1062" s="4" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1063" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -44272,19 +44269,19 @@
         <v>2481</v>
       </c>
       <c r="F1063" s="8" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="G1063" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H1063" s="4" t="s">
         <v>2902</v>
       </c>
-      <c r="H1063" s="4" t="s">
-        <v>2903</v>
-      </c>
       <c r="I1063" s="4" t="s">
         <v>2482</v>
       </c>
       <c r="J1063" s="4" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="K1063" s="4"/>
       <c r="L1063" s="4"/>
@@ -44293,7 +44290,7 @@
         <v>4</v>
       </c>
       <c r="O1063" s="4" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1064" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -44313,19 +44310,19 @@
         <v>2481</v>
       </c>
       <c r="F1064" s="8" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="G1064" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H1064" s="4" t="s">
         <v>2902</v>
       </c>
-      <c r="H1064" s="4" t="s">
-        <v>2903</v>
-      </c>
       <c r="I1064" s="4" t="s">
         <v>2482</v>
       </c>
       <c r="J1064" s="4" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="K1064" s="4"/>
       <c r="L1064" s="4"/>
@@ -44334,7 +44331,7 @@
         <v>1</v>
       </c>
       <c r="O1064" s="4" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1065" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -44402,7 +44399,7 @@
       <c r="M1066" s="4"/>
       <c r="N1066" s="4"/>
       <c r="O1066" s="4" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1067" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -44441,7 +44438,7 @@
       <c r="M1067" s="4"/>
       <c r="N1067" s="4"/>
       <c r="O1067" s="4" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1068" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -44480,7 +44477,7 @@
       <c r="M1068" s="4"/>
       <c r="N1068" s="4"/>
       <c r="O1068" s="4" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1069" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -44797,7 +44794,7 @@
         <v>2481</v>
       </c>
       <c r="F1080" s="8" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="G1080" s="4" t="s">
         <v>2507</v>
@@ -44809,14 +44806,14 @@
         <v>2597</v>
       </c>
       <c r="J1080" s="4" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="K1080" s="4"/>
       <c r="L1080" s="4"/>
       <c r="M1080" s="4"/>
       <c r="N1080" s="4"/>
       <c r="O1080" s="4" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1081" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -45070,17 +45067,17 @@
         <v>2510</v>
       </c>
       <c r="I1088" s="4" t="s">
+        <v>2913</v>
+      </c>
+      <c r="J1088" s="4" t="s">
         <v>2914</v>
-      </c>
-      <c r="J1088" s="4" t="s">
-        <v>2915</v>
       </c>
       <c r="K1088" s="4"/>
       <c r="L1088" s="4"/>
       <c r="M1088" s="4"/>
       <c r="N1088" s="4"/>
       <c r="O1088" s="4" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1089" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -45146,7 +45143,7 @@
       <c r="M1090" s="4"/>
       <c r="N1090" s="4"/>
       <c r="O1090" s="4" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="1091" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -45185,7 +45182,7 @@
       <c r="M1091" s="4"/>
       <c r="N1091" s="4"/>
       <c r="O1091" s="4" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="1092" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -45259,7 +45256,7 @@
         <v>2481</v>
       </c>
       <c r="F1094" s="8" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G1094" s="4" t="s">
         <v>2483</v>
@@ -45278,7 +45275,7 @@
       <c r="M1094" s="4"/>
       <c r="N1094" s="4"/>
       <c r="O1094" s="4" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1095" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -45298,7 +45295,7 @@
         <v>2481</v>
       </c>
       <c r="F1095" s="8" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G1095" s="4" t="s">
         <v>2483</v>
@@ -45310,14 +45307,14 @@
         <v>2486</v>
       </c>
       <c r="J1095" s="4" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1095" s="4"/>
       <c r="L1095" s="4"/>
       <c r="M1095" s="4"/>
       <c r="N1095" s="4"/>
       <c r="O1095" s="4" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1096" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -45337,7 +45334,7 @@
         <v>2481</v>
       </c>
       <c r="F1096" s="8" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G1096" s="4" t="s">
         <v>2483</v>
@@ -45349,14 +45346,14 @@
         <v>2487</v>
       </c>
       <c r="J1096" s="4" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K1096" s="4"/>
       <c r="L1096" s="4"/>
       <c r="M1096" s="4"/>
       <c r="N1096" s="4"/>
       <c r="O1096" s="4" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1097" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -45430,7 +45427,7 @@
         <v>2481</v>
       </c>
       <c r="F1099" s="8" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="G1099" s="4" t="s">
         <v>2654</v>
@@ -45439,17 +45436,17 @@
         <v>2743</v>
       </c>
       <c r="I1099" s="4" t="s">
+        <v>2921</v>
+      </c>
+      <c r="J1099" s="4" t="s">
         <v>2922</v>
-      </c>
-      <c r="J1099" s="4" t="s">
-        <v>2923</v>
       </c>
       <c r="K1099" s="4"/>
       <c r="L1099" s="4"/>
       <c r="M1099" s="4"/>
       <c r="N1099" s="4"/>
       <c r="O1099" s="4" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1100" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -45577,7 +45574,7 @@
         <v>2481</v>
       </c>
       <c r="F1104" s="8" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="G1104" s="4" t="s">
         <v>2496</v>
@@ -45774,7 +45771,7 @@
       <c r="M1110" s="4"/>
       <c r="N1110" s="4"/>
       <c r="O1110" s="4" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1111" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -45813,7 +45810,7 @@
       <c r="M1111" s="4"/>
       <c r="N1111" s="4"/>
       <c r="O1111" s="4" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1112" spans="1:15" ht="51" x14ac:dyDescent="0.25">
@@ -47091,7 +47088,7 @@
       <c r="M1157" s="4"/>
       <c r="N1157" s="4"/>
       <c r="O1157" s="4" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1158" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
@@ -47130,7 +47127,7 @@
       <c r="M1158" s="4"/>
       <c r="N1158" s="4"/>
       <c r="O1158" s="4" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1159" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -47595,7 +47592,7 @@
         <v>2481</v>
       </c>
       <c r="F1174" s="8" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="G1174" s="4" t="s">
         <v>2589</v>
@@ -47604,7 +47601,7 @@
         <v>2681</v>
       </c>
       <c r="I1174" s="4" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="J1174" s="4" t="s">
         <v>2482</v>
@@ -47614,7 +47611,7 @@
       <c r="M1174" s="4"/>
       <c r="N1174" s="4"/>
       <c r="O1174" s="4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1175" spans="1:15" ht="102" x14ac:dyDescent="0.25">
@@ -47634,7 +47631,7 @@
         <v>2481</v>
       </c>
       <c r="F1175" s="8" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="G1175" s="4" t="s">
         <v>2589</v>
@@ -47643,7 +47640,7 @@
         <v>2681</v>
       </c>
       <c r="I1175" s="4" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="J1175" s="4" t="s">
         <v>2482</v>
@@ -47653,7 +47650,7 @@
       <c r="M1175" s="4"/>
       <c r="N1175" s="4"/>
       <c r="O1175" s="4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1176" spans="1:15" ht="102" x14ac:dyDescent="0.25">
@@ -47673,7 +47670,7 @@
         <v>2481</v>
       </c>
       <c r="F1176" s="8" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="G1176" s="4" t="s">
         <v>2589</v>
@@ -47682,7 +47679,7 @@
         <v>2681</v>
       </c>
       <c r="I1176" s="4" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="J1176" s="4" t="s">
         <v>2482</v>
@@ -47692,7 +47689,7 @@
       <c r="M1176" s="4"/>
       <c r="N1176" s="4"/>
       <c r="O1176" s="4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1177" spans="1:15" ht="102" x14ac:dyDescent="0.25">
@@ -47712,7 +47709,7 @@
         <v>2481</v>
       </c>
       <c r="F1177" s="8" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="G1177" s="4" t="s">
         <v>2589</v>
@@ -47721,7 +47718,7 @@
         <v>2681</v>
       </c>
       <c r="I1177" s="4" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="J1177" s="4" t="s">
         <v>2482</v>
@@ -47731,7 +47728,7 @@
       <c r="M1177" s="4"/>
       <c r="N1177" s="4"/>
       <c r="O1177" s="4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1178" spans="1:15" ht="102" x14ac:dyDescent="0.25">
@@ -47751,7 +47748,7 @@
         <v>2481</v>
       </c>
       <c r="F1178" s="8" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="G1178" s="4" t="s">
         <v>2589</v>
@@ -47770,7 +47767,7 @@
       <c r="M1178" s="4"/>
       <c r="N1178" s="4"/>
       <c r="O1178" s="4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1179" spans="1:15" ht="102" x14ac:dyDescent="0.25">
@@ -47790,7 +47787,7 @@
         <v>2481</v>
       </c>
       <c r="F1179" s="8" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="G1179" s="4" t="s">
         <v>2589</v>
@@ -47799,7 +47796,7 @@
         <v>2681</v>
       </c>
       <c r="I1179" s="4" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="J1179" s="4" t="s">
         <v>2482</v>
@@ -47809,7 +47806,7 @@
       <c r="M1179" s="4"/>
       <c r="N1179" s="4"/>
       <c r="O1179" s="4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1180" spans="1:15" ht="102" x14ac:dyDescent="0.25">
@@ -47829,7 +47826,7 @@
         <v>2481</v>
       </c>
       <c r="F1180" s="8" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="G1180" s="4" t="s">
         <v>2589</v>
@@ -47838,7 +47835,7 @@
         <v>2681</v>
       </c>
       <c r="I1180" s="4" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="J1180" s="4" t="s">
         <v>2482</v>
@@ -47848,7 +47845,7 @@
       <c r="M1180" s="4"/>
       <c r="N1180" s="4"/>
       <c r="O1180" s="4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1181" spans="1:15" ht="102" x14ac:dyDescent="0.25">
@@ -47868,7 +47865,7 @@
         <v>2481</v>
       </c>
       <c r="F1181" s="8" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="G1181" s="4" t="s">
         <v>2589</v>
@@ -47877,7 +47874,7 @@
         <v>2681</v>
       </c>
       <c r="I1181" s="4" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="J1181" s="4" t="s">
         <v>2482</v>
@@ -47887,7 +47884,7 @@
       <c r="M1181" s="4"/>
       <c r="N1181" s="4"/>
       <c r="O1181" s="4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1182" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -47926,7 +47923,7 @@
       <c r="M1182" s="4"/>
       <c r="N1182" s="4"/>
       <c r="O1182" s="4" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1183" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -47965,7 +47962,7 @@
       <c r="M1183" s="4"/>
       <c r="N1183" s="4"/>
       <c r="O1183" s="4" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1184" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -48004,7 +48001,7 @@
       <c r="M1184" s="4"/>
       <c r="N1184" s="4"/>
       <c r="O1184" s="4" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1185" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -48801,10 +48798,10 @@
         <v>2516</v>
       </c>
       <c r="I1213" s="4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="J1213" s="4" t="s">
         <v>2939</v>
-      </c>
-      <c r="J1213" s="4" t="s">
-        <v>2940</v>
       </c>
       <c r="K1213" s="4"/>
       <c r="L1213" s="4"/>
@@ -49192,7 +49189,7 @@
       <c r="M1226" s="4"/>
       <c r="N1226" s="4"/>
       <c r="O1226" s="4" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1227" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -49231,7 +49228,7 @@
       <c r="M1227" s="4"/>
       <c r="N1227" s="4"/>
       <c r="O1227" s="4" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1228" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -49270,7 +49267,7 @@
       <c r="M1228" s="4"/>
       <c r="N1228" s="4"/>
       <c r="O1228" s="4" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1229" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -49552,7 +49549,7 @@
       <c r="M1238" s="4"/>
       <c r="N1238" s="4"/>
       <c r="O1238" s="4" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1239" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -49591,7 +49588,7 @@
       <c r="M1239" s="4"/>
       <c r="N1239" s="4"/>
       <c r="O1239" s="4" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1240" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -49704,7 +49701,7 @@
         <v>2757</v>
       </c>
       <c r="J1243" s="4" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="K1243" s="4"/>
       <c r="L1243" s="4"/>
@@ -49713,7 +49710,7 @@
         <v>1</v>
       </c>
       <c r="O1243" s="4" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1244" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -49745,7 +49742,7 @@
         <v>2834</v>
       </c>
       <c r="J1244" s="4" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="K1244" s="4"/>
       <c r="L1244" s="4"/>
@@ -49754,7 +49751,7 @@
         <v>1</v>
       </c>
       <c r="O1244" s="4" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1245" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -50765,7 +50762,7 @@
       <c r="M1277" s="4"/>
       <c r="N1277" s="4"/>
       <c r="O1277" s="4" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1278" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -50884,7 +50881,7 @@
       <c r="M1280" s="4"/>
       <c r="N1280" s="4"/>
       <c r="O1280" s="4" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1281" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -51031,7 +51028,7 @@
       <c r="M1285" s="4"/>
       <c r="N1285" s="4"/>
       <c r="O1285" s="4" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1286" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -51072,7 +51069,7 @@
       </c>
       <c r="N1286" s="4"/>
       <c r="O1286" s="4" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1287" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -51128,7 +51125,7 @@
         <v>2516</v>
       </c>
       <c r="I1288" s="4" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="J1288" s="4" t="s">
         <v>2518</v>
@@ -51140,7 +51137,7 @@
       <c r="M1288" s="4"/>
       <c r="N1288" s="4"/>
       <c r="O1288" s="4" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1289" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -51408,10 +51405,10 @@
         <v>2672</v>
       </c>
       <c r="H1297" s="4" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="I1297" s="4" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="J1297" s="4" t="s">
         <v>2482</v>
@@ -51425,7 +51422,7 @@
       <c r="M1297" s="4"/>
       <c r="N1297" s="4"/>
       <c r="O1297" s="4" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1298" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -51451,10 +51448,10 @@
         <v>2672</v>
       </c>
       <c r="H1298" s="4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="I1298" s="4" t="s">
         <v>2950</v>
-      </c>
-      <c r="I1298" s="4" t="s">
-        <v>2951</v>
       </c>
       <c r="J1298" s="4" t="s">
         <v>2482</v>
@@ -51466,7 +51463,7 @@
         <v>100</v>
       </c>
       <c r="O1298" s="4" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1299" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -51998,7 +51995,7 @@
       <c r="M1312" s="4"/>
       <c r="N1312" s="4"/>
       <c r="O1312" s="4" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1313" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -52027,7 +52024,7 @@
         <v>2671</v>
       </c>
       <c r="I1313" s="4" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="J1313" s="4" t="s">
         <v>2482</v>
@@ -52037,7 +52034,7 @@
       <c r="M1313" s="4"/>
       <c r="N1313" s="4"/>
       <c r="O1313" s="4" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1314" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -52897,7 +52894,7 @@
         <v>2482</v>
       </c>
       <c r="G1345" s="4" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="H1345" s="4" t="s">
         <v>2516</v>
@@ -52936,7 +52933,7 @@
         <v>2482</v>
       </c>
       <c r="G1346" s="4" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="H1346" s="4" t="s">
         <v>2519</v>
@@ -52975,7 +52972,7 @@
         <v>2482</v>
       </c>
       <c r="G1347" s="4" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="H1347" s="4" t="s">
         <v>2520</v>
@@ -53566,7 +53563,7 @@
         <v>2516</v>
       </c>
       <c r="I1366" s="4" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="J1366" s="4" t="s">
         <v>2482</v>
@@ -53576,7 +53573,7 @@
       <c r="M1366" s="4"/>
       <c r="N1366" s="4"/>
       <c r="O1366" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1367" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53605,7 +53602,7 @@
         <v>2516</v>
       </c>
       <c r="I1367" s="4" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="J1367" s="4" t="s">
         <v>2482</v>
@@ -53615,7 +53612,7 @@
       <c r="M1367" s="4"/>
       <c r="N1367" s="4"/>
       <c r="O1367" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1368" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53654,7 +53651,7 @@
       <c r="M1368" s="4"/>
       <c r="N1368" s="4"/>
       <c r="O1368" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1369" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53683,7 +53680,7 @@
         <v>2516</v>
       </c>
       <c r="I1369" s="4" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="J1369" s="4" t="s">
         <v>2482</v>
@@ -53693,7 +53690,7 @@
       <c r="M1369" s="4"/>
       <c r="N1369" s="4"/>
       <c r="O1369" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1370" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53722,7 +53719,7 @@
         <v>2516</v>
       </c>
       <c r="I1370" s="4" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="J1370" s="4" t="s">
         <v>2482</v>
@@ -53732,7 +53729,7 @@
       <c r="M1370" s="4"/>
       <c r="N1370" s="4"/>
       <c r="O1370" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1371" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53761,7 +53758,7 @@
         <v>2519</v>
       </c>
       <c r="I1371" s="4" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="J1371" s="4" t="s">
         <v>2482</v>
@@ -53771,7 +53768,7 @@
       <c r="M1371" s="4"/>
       <c r="N1371" s="4"/>
       <c r="O1371" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1372" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53800,7 +53797,7 @@
         <v>2519</v>
       </c>
       <c r="I1372" s="4" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="J1372" s="4" t="s">
         <v>2482</v>
@@ -53810,7 +53807,7 @@
       <c r="M1372" s="4"/>
       <c r="N1372" s="4"/>
       <c r="O1372" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1373" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53839,7 +53836,7 @@
         <v>2519</v>
       </c>
       <c r="I1373" s="4" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="J1373" s="4" t="s">
         <v>2482</v>
@@ -53849,7 +53846,7 @@
       <c r="M1373" s="4"/>
       <c r="N1373" s="4"/>
       <c r="O1373" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1374" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53878,7 +53875,7 @@
         <v>2519</v>
       </c>
       <c r="I1374" s="4" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="J1374" s="4" t="s">
         <v>2482</v>
@@ -53888,7 +53885,7 @@
       <c r="M1374" s="4"/>
       <c r="N1374" s="4"/>
       <c r="O1374" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1375" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53917,7 +53914,7 @@
         <v>2519</v>
       </c>
       <c r="I1375" s="4" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="J1375" s="4" t="s">
         <v>2482</v>
@@ -53927,7 +53924,7 @@
       <c r="M1375" s="4"/>
       <c r="N1375" s="4"/>
       <c r="O1375" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1376" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53956,7 +53953,7 @@
         <v>2519</v>
       </c>
       <c r="I1376" s="4" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="J1376" s="4" t="s">
         <v>2482</v>
@@ -53966,7 +53963,7 @@
       <c r="M1376" s="4"/>
       <c r="N1376" s="4"/>
       <c r="O1376" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1377" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -53995,7 +53992,7 @@
         <v>2519</v>
       </c>
       <c r="I1377" s="4" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="J1377" s="4" t="s">
         <v>2482</v>
@@ -54005,7 +54002,7 @@
       <c r="M1377" s="4"/>
       <c r="N1377" s="4"/>
       <c r="O1377" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1378" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -54034,7 +54031,7 @@
         <v>2519</v>
       </c>
       <c r="I1378" s="4" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="J1378" s="4" t="s">
         <v>2482</v>
@@ -54044,7 +54041,7 @@
       <c r="M1378" s="4"/>
       <c r="N1378" s="4"/>
       <c r="O1378" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1379" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -54083,7 +54080,7 @@
       <c r="M1379" s="4"/>
       <c r="N1379" s="4"/>
       <c r="O1379" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1380" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -54122,7 +54119,7 @@
       <c r="M1380" s="4"/>
       <c r="N1380" s="4"/>
       <c r="O1380" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1381" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
@@ -54169,19 +54166,19 @@
         <v>2481</v>
       </c>
       <c r="F1382" s="8" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="G1382" s="4" t="s">
+        <v>2966</v>
+      </c>
+      <c r="H1382" s="4" t="s">
         <v>2967</v>
       </c>
-      <c r="H1382" s="4" t="s">
+      <c r="I1382" s="4" t="s">
         <v>2968</v>
       </c>
-      <c r="I1382" s="4" t="s">
-        <v>2969</v>
-      </c>
       <c r="J1382" s="4" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="K1382" s="4"/>
       <c r="L1382" s="4"/>
@@ -54512,19 +54509,19 @@
         <v>2481</v>
       </c>
       <c r="F1391" s="8" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="G1391" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="H1391" s="4" t="s">
         <v>2971</v>
       </c>
-      <c r="H1391" s="4" t="s">
+      <c r="I1391" s="4" t="s">
+        <v>2482</v>
+      </c>
+      <c r="J1391" s="4" t="s">
         <v>2972</v>
-      </c>
-      <c r="I1391" s="4" t="s">
-        <v>2482</v>
-      </c>
-      <c r="J1391" s="4" t="s">
-        <v>2973</v>
       </c>
       <c r="K1391" s="4"/>
       <c r="L1391" s="4"/>
@@ -55811,7 +55808,7 @@
         <v>2584</v>
       </c>
       <c r="H1434" s="4" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="I1434" s="4" t="s">
         <v>2482</v>
@@ -56286,16 +56283,16 @@
         <v>2481</v>
       </c>
       <c r="F1449" s="8" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="G1449" s="4" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="H1449" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="I1449" s="4" t="s">
         <v>2976</v>
-      </c>
-      <c r="I1449" s="4" t="s">
-        <v>2977</v>
       </c>
       <c r="J1449" s="4" t="s">
         <v>2482</v>
@@ -56307,7 +56304,7 @@
       <c r="M1449" s="4"/>
       <c r="N1449" s="4"/>
       <c r="O1449" s="4" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1450" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56327,16 +56324,16 @@
         <v>2481</v>
       </c>
       <c r="F1450" s="8" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="G1450" s="4" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="H1450" s="4" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="I1450" s="4" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="J1450" s="4" t="s">
         <v>2482</v>
@@ -56348,7 +56345,7 @@
       <c r="M1450" s="4"/>
       <c r="N1450" s="4"/>
       <c r="O1450" s="4" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1451" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56368,16 +56365,16 @@
         <v>2481</v>
       </c>
       <c r="F1451" s="8" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="G1451" s="4" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="H1451" s="4" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="I1451" s="4" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="J1451" s="4" t="s">
         <v>2482</v>
@@ -56389,7 +56386,7 @@
       <c r="M1451" s="4"/>
       <c r="N1451" s="4"/>
       <c r="O1451" s="4" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1452" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56409,16 +56406,16 @@
         <v>2481</v>
       </c>
       <c r="F1452" s="8" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="G1452" s="4" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="H1452" s="4" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="I1452" s="4" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="J1452" s="4" t="s">
         <v>2482</v>
@@ -56430,7 +56427,7 @@
       <c r="M1452" s="4"/>
       <c r="N1452" s="4"/>
       <c r="O1452" s="4" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1453" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56450,16 +56447,16 @@
         <v>2481</v>
       </c>
       <c r="F1453" s="8" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="G1453" s="4" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="H1453" s="4" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="I1453" s="4" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="J1453" s="4" t="s">
         <v>2482</v>
@@ -56471,7 +56468,7 @@
       <c r="M1453" s="4"/>
       <c r="N1453" s="4"/>
       <c r="O1453" s="4" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1454" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56497,7 +56494,7 @@
         <v>2502</v>
       </c>
       <c r="H1454" s="4" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="I1454" s="4" t="s">
         <v>2482</v>
@@ -56512,7 +56509,7 @@
       <c r="M1454" s="4"/>
       <c r="N1454" s="4"/>
       <c r="O1454" s="4" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1455" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56538,7 +56535,7 @@
         <v>2502</v>
       </c>
       <c r="H1455" s="4" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="I1455" s="4" t="s">
         <v>2482</v>
@@ -56553,7 +56550,7 @@
       <c r="M1455" s="4"/>
       <c r="N1455" s="4"/>
       <c r="O1455" s="4" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1456" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56594,7 +56591,7 @@
       <c r="M1456" s="4"/>
       <c r="N1456" s="4"/>
       <c r="O1456" s="4" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1457" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56620,7 +56617,7 @@
         <v>2502</v>
       </c>
       <c r="H1457" s="4" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="I1457" s="4" t="s">
         <v>2482</v>
@@ -56635,7 +56632,7 @@
       <c r="M1457" s="4"/>
       <c r="N1457" s="4"/>
       <c r="O1457" s="4" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1458" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56661,7 +56658,7 @@
         <v>2672</v>
       </c>
       <c r="H1458" s="4" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="I1458" s="4" t="s">
         <v>2482</v>
@@ -56676,7 +56673,7 @@
       <c r="M1458" s="4"/>
       <c r="N1458" s="4"/>
       <c r="O1458" s="4" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1459" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -56780,10 +56777,10 @@
         <v>2482</v>
       </c>
       <c r="G1462" s="4" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="H1462" s="4" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="I1462" s="4" t="s">
         <v>2482</v>
@@ -56796,7 +56793,7 @@
       <c r="M1462" s="4"/>
       <c r="N1462" s="4"/>
       <c r="O1462" s="4" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="1463" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -57005,7 +57002,7 @@
         <v>2481</v>
       </c>
       <c r="F1470" s="8" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="G1470" s="4" t="s">
         <v>2589</v>
@@ -57017,14 +57014,14 @@
         <v>2684</v>
       </c>
       <c r="J1470" s="4" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="K1470" s="4"/>
       <c r="L1470" s="4"/>
       <c r="M1470" s="4"/>
       <c r="N1470" s="4"/>
       <c r="O1470" s="4" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="1471" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -57044,7 +57041,7 @@
         <v>2481</v>
       </c>
       <c r="F1471" s="8" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="G1471" s="4" t="s">
         <v>2589</v>
@@ -57063,7 +57060,7 @@
       <c r="M1471" s="4"/>
       <c r="N1471" s="4"/>
       <c r="O1471" s="4" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="1472" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -57551,17 +57548,17 @@
         <v>2516</v>
       </c>
       <c r="I1489" s="4" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="J1489" s="4" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="K1489" s="4"/>
       <c r="L1489" s="4"/>
       <c r="M1489" s="4"/>
       <c r="N1489" s="4"/>
       <c r="O1489" s="4" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1490" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -57600,7 +57597,7 @@
       <c r="M1490" s="4"/>
       <c r="N1490" s="4"/>
       <c r="O1490" s="4" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1491" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -58318,7 +58315,7 @@
         <v>2481</v>
       </c>
       <c r="F1515" s="8" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="G1515" s="4" t="s">
         <v>2496</v>
@@ -58378,7 +58375,7 @@
       <c r="M1516" s="4"/>
       <c r="N1516" s="4"/>
       <c r="O1516" s="4" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1517" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -58404,7 +58401,7 @@
         <v>2654</v>
       </c>
       <c r="H1517" s="4" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="I1517" s="4" t="s">
         <v>2482</v>
@@ -58417,7 +58414,7 @@
       <c r="M1517" s="4"/>
       <c r="N1517" s="4"/>
       <c r="O1517" s="4" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="1518" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -58483,7 +58480,7 @@
       <c r="M1519" s="4"/>
       <c r="N1519" s="4"/>
       <c r="O1519" s="4" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1520" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -58522,7 +58519,7 @@
       <c r="M1520" s="4"/>
       <c r="N1520" s="4"/>
       <c r="O1520" s="4" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1521" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -58596,13 +58593,13 @@
         <v>2481</v>
       </c>
       <c r="F1523" s="8" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="G1523" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H1523" s="4" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="I1523" s="4" t="s">
         <v>2482</v>
@@ -59016,7 +59013,7 @@
       <c r="M1536" s="4"/>
       <c r="N1536" s="4"/>
       <c r="O1536" s="4" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1537" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -59055,7 +59052,7 @@
       <c r="M1537" s="4"/>
       <c r="N1537" s="4"/>
       <c r="O1537" s="4" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1538" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -59472,7 +59469,7 @@
       <c r="M1552" s="4"/>
       <c r="N1552" s="4"/>
       <c r="O1552" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1553" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -59511,7 +59508,7 @@
       <c r="M1553" s="4"/>
       <c r="N1553" s="4"/>
       <c r="O1553" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1554" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
@@ -59590,10 +59587,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1" t="s">
         <v>3002</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3003</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
